--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3373.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3373.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.234657358810665</v>
+        <v>4.129390239715576</v>
       </c>
       <c r="B1">
-        <v>2.580327801649638</v>
+        <v>2.47679877281189</v>
       </c>
       <c r="C1">
-        <v>4.432491783817411</v>
+        <v>1.821427583694458</v>
       </c>
       <c r="D1">
-        <v>3.181264799562237</v>
+        <v>1.692352294921875</v>
       </c>
       <c r="E1">
-        <v>1.168266095743921</v>
+        <v>1.592419266700745</v>
       </c>
     </row>
   </sheetData>
